--- a/dataSheet/MasterFile.xlsx
+++ b/dataSheet/MasterFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10613203\Desktop\selne\dccmWorkspace\dccm\dataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10637217\Desktop\DCCM\Workspace\LearnProject\dataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5170A-871E-4E5A-A257-D0ADE85BC647}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CFF53F-9E24-4A6A-8953-6B6206BD2D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExecVariables" sheetId="1" r:id="rId1"/>
@@ -470,12 +470,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -491,7 +491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -507,7 +507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -540,18 +540,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -565,7 +565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -579,7 +579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -593,7 +593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -607,12 +607,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -635,12 +635,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -673,7 +673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -695,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
